--- a/f/3.xlsx
+++ b/f/3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workplace\we-compare\f\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECB380D-8477-49CF-B167-3363177E06F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759F0AC6-9CB4-424C-A0C9-06C1F07DF8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>fed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,10 @@
   </si>
   <si>
     <t>sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反对法地方</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D6:L20"/>
+  <dimension ref="D6:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -400,9 +404,14 @@
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H20" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="N23" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
